--- a/published-data/fonds-solidarite/fds-2022-06-07/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-07/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -6673,13 +6673,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D123" t="n">
         <v>49</v>
       </c>
       <c r="E123" t="n">
-        <v>10121681</v>
+        <v>10205718</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -9631,13 +9631,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>9349</v>
+        <v>9350</v>
       </c>
       <c r="D181" t="n">
         <v>1774</v>
       </c>
       <c r="E181" t="n">
-        <v>56656804</v>
+        <v>56659448</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -13660,13 +13660,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>7484</v>
+        <v>7485</v>
       </c>
       <c r="D260" t="n">
         <v>1049</v>
       </c>
       <c r="E260" t="n">
-        <v>31911747</v>
+        <v>31913247</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -18658,13 +18658,13 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D358" t="n">
         <v>150</v>
       </c>
       <c r="E358" t="n">
-        <v>4266554</v>
+        <v>4274646</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
@@ -18811,13 +18811,13 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>4543</v>
+        <v>4544</v>
       </c>
       <c r="D361" t="n">
         <v>592</v>
       </c>
       <c r="E361" t="n">
-        <v>8326939</v>
+        <v>8328779</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163606</v>
+        <v>163612</v>
       </c>
       <c r="D434" t="n">
         <v>25456</v>
       </c>
       <c r="E434" t="n">
-        <v>711416979</v>
+        <v>711465342</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30965</v>
+        <v>30967</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>595757844</v>
+        <v>595851247</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -22789,13 +22789,13 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D439" t="n">
         <v>232</v>
       </c>
       <c r="E439" t="n">
-        <v>134935917</v>
+        <v>134959247</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
@@ -23452,13 +23452,13 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D452" t="n">
         <v>141</v>
       </c>
       <c r="E452" t="n">
-        <v>33405005</v>
+        <v>33442422</v>
       </c>
       <c r="F452" t="inlineStr">
         <is>
@@ -23707,13 +23707,13 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>48907</v>
+        <v>48908</v>
       </c>
       <c r="D457" t="n">
         <v>8597</v>
       </c>
       <c r="E457" t="n">
-        <v>164649270</v>
+        <v>164650770</v>
       </c>
       <c r="F457" t="inlineStr">
         <is>
@@ -23809,13 +23809,13 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>7781</v>
+        <v>7782</v>
       </c>
       <c r="D459" t="n">
         <v>1537</v>
       </c>
       <c r="E459" t="n">
-        <v>64572876</v>
+        <v>64648343</v>
       </c>
       <c r="F459" t="inlineStr">
         <is>
@@ -23860,13 +23860,13 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3568</v>
+        <v>3569</v>
       </c>
       <c r="D460" t="n">
         <v>601</v>
       </c>
       <c r="E460" t="n">
-        <v>53156858</v>
+        <v>53200612</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
@@ -23911,13 +23911,13 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D461" t="n">
         <v>205</v>
       </c>
       <c r="E461" t="n">
-        <v>50024777</v>
+        <v>50098639</v>
       </c>
       <c r="F461" t="inlineStr">
         <is>
@@ -26053,13 +26053,13 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D503" t="n">
         <v>71</v>
       </c>
       <c r="E503" t="n">
-        <v>16649846</v>
+        <v>16698678</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
@@ -29572,13 +29572,13 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>11826</v>
+        <v>11827</v>
       </c>
       <c r="D572" t="n">
         <v>2161</v>
       </c>
       <c r="E572" t="n">
-        <v>44999785</v>
+        <v>45008899</v>
       </c>
       <c r="F572" t="inlineStr">
         <is>
@@ -41812,13 +41812,13 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>60661</v>
+        <v>60662</v>
       </c>
       <c r="D812" t="n">
         <v>10169</v>
       </c>
       <c r="E812" t="n">
-        <v>245058380</v>
+        <v>245064575</v>
       </c>
       <c r="F812" t="inlineStr">
         <is>
@@ -42373,13 +42373,13 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>76802</v>
+        <v>76803</v>
       </c>
       <c r="D823" t="n">
         <v>14068</v>
       </c>
       <c r="E823" t="n">
-        <v>291952626</v>
+        <v>291954126</v>
       </c>
       <c r="F823" t="inlineStr">
         <is>
